--- a/data/trans_camb/PCS12_SP_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/PCS12_SP_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,05</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 6,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,01; 3,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 10,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,68; 1,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,69; 0,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 7,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 2,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,05; 0,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,37; 7,84</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,22%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 10,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,45; 5,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 16,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,31; 1,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,69; 0,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 9,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 3,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,12; 0,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,31; 11,33</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 6,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 3,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,64; 14,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,87; 1,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,44; -2,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 12,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 3,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,77; -0,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,6; 11,31</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,62%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 20,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,21; 12,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,32; 44,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,36; 4,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,09; -5,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 26,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,01; 8,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,81; -0,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,91; 29,42</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,63</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,4</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,43</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,18; 2,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,5; -1,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,82; 15,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,96; 0,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,79; -4,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,88; 1,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,25; 0,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,16; -3,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 7,62</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,13%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,04%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,19; 7,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,5; -5,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,96; 53,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,51; 1,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,03; -11,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,91; 4,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,95; 0,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,66; -11,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 21,07</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,24</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 3,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,97; -1,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,43; 7,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,16; -0,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,7; -6,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,76; 1,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 0,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,08; -4,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 3,75</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,89%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,43%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,77%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,34%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 9,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,6; -2,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,22; 18,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,85; -0,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,96; -11,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,98; 3,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,7; 1,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,85; -9,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 7,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PCS12_SP_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>5,09</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 10,2</t>
+          <t>0,77; 10,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 7,31</t>
+          <t>0,78; 7,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,84</t>
+          <t>2,38; 7,91</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>7,29%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 16,83</t>
+          <t>1,14; 17,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 9,82</t>
+          <t>0,98; 9,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 11,33</t>
+          <t>3,34; 11,58</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,23</t>
+          <t>14,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>9,7</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 14,31</t>
+          <t>7,08; 30,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 12,02</t>
+          <t>-1,85; 18,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 11,31</t>
+          <t>3,74; 18,79</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>42,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>24,62%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,32; 44,51</t>
+          <t>19,98; 96,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 26,69</t>
+          <t>-3,8; 41,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,91; 29,42</t>
+          <t>9,15; 48,75</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>9,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>3,67</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,82; 15,9</t>
+          <t>3,54; 16,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 1,77</t>
+          <t>-8,65; 2,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 7,62</t>
+          <t>-0,21; 7,93</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-8,26%</t>
+          <t>-7,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>9,67%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,96; 53,55</t>
+          <t>9,8; 53,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,91; 4,41</t>
+          <t>-18,22; 5,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 21,07</t>
+          <t>-0,59; 22,04</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>2,39</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 7,53</t>
+          <t>2,62; 18,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 1,8</t>
+          <t>-6,69; 6,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,75</t>
+          <t>-1,07; 8,47</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,4%</t>
+          <t>-4,24%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,22; 18,11</t>
+          <t>6,12; 46,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 3,44</t>
+          <t>-11,57; 11,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 7,49</t>
+          <t>-2,13; 17,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PCS12_SP_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 6,53</t>
+          <t>-2,04; 6,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 3,53</t>
+          <t>-5,82; 3,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 10,62</t>
+          <t>0,37; 10,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 1,05</t>
+          <t>-5,66; 1,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 0,51</t>
+          <t>-7,02; 0,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,38</t>
+          <t>0,95; 7,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,74</t>
+          <t>-2,59; 2,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 0,62</t>
+          <t>-5,08; 0,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 7,91</t>
+          <t>2,2; 7,99</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 10,91</t>
+          <t>-3,18; 11,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 5,85</t>
+          <t>-8,85; 6,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 17,49</t>
+          <t>0,62; 18,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 1,41</t>
+          <t>-7,34; 1,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 0,7</t>
+          <t>-9,09; 1,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,92</t>
+          <t>1,26; 10,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,99</t>
+          <t>-3,67; 3,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 0,9</t>
+          <t>-7,18; 1,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 11,58</t>
+          <t>3,21; 11,64</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,75</t>
+          <t>0,27; 6,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 3,83</t>
+          <t>-2,02; 4,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,08; 30,96</t>
+          <t>6,54; 29,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 1,98</t>
+          <t>-5,23; 1,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,44; -2,53</t>
+          <t>-9,7; -2,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 18,89</t>
+          <t>-1,92; 20,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,36</t>
+          <t>-1,5; 3,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -0,1</t>
+          <t>-4,72; -0,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 18,79</t>
+          <t>3,87; 19,35</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 20,84</t>
+          <t>0,71; 21,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 12,01</t>
+          <t>-5,86; 13,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,98; 96,88</t>
+          <t>19,03; 90,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 4,49</t>
+          <t>-11,15; 4,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,09; -5,81</t>
+          <t>-20,39; -6,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 41,97</t>
+          <t>-4,22; 46,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 8,87</t>
+          <t>-3,72; 8,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,81; -0,25</t>
+          <t>-11,57; -0,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,15; 48,75</t>
+          <t>9,63; 49,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 2,45</t>
+          <t>-9,15; 3,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,5; -1,84</t>
+          <t>-12,37; -0,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 16,02</t>
+          <t>4,07; 15,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 0,66</t>
+          <t>-13,37; 0,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,79; -4,96</t>
+          <t>-16,72; -4,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 2,08</t>
+          <t>-9,05; 1,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 0,22</t>
+          <t>-8,79; 0,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,16; -3,98</t>
+          <t>-12,44; -4,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 7,93</t>
+          <t>-0,37; 7,7</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,19; 7,96</t>
+          <t>-25,68; 11,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,5; -5,36</t>
+          <t>-34,49; -1,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,8; 53,87</t>
+          <t>11,56; 53,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 1,66</t>
+          <t>-28,36; 1,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,03; -11,74</t>
+          <t>-35,31; -10,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 5,11</t>
+          <t>-19,1; 4,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 0,6</t>
+          <t>-22,01; 0,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,66; -11,19</t>
+          <t>-31,12; -11,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 22,04</t>
+          <t>-0,87; 21,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,83</t>
+          <t>-1,05; 3,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,97; -1,06</t>
+          <t>-6,08; -0,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 18,91</t>
+          <t>2,6; 19,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,16; -0,44</t>
+          <t>-5,38; -0,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -6,7</t>
+          <t>-11,88; -6,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 6,2</t>
+          <t>-6,59; 5,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,96</t>
+          <t>-2,4; 1,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,08; -4,64</t>
+          <t>-8,16; -4,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 8,47</t>
+          <t>-1,18; 8,52</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 9,31</t>
+          <t>-2,41; 9,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,6; -2,6</t>
+          <t>-13,87; -2,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,12; 46,22</t>
+          <t>5,98; 46,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,85; -0,78</t>
+          <t>-9,22; -0,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,96; -11,93</t>
+          <t>-20,33; -12,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 11,44</t>
+          <t>-11,49; 9,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 1,92</t>
+          <t>-4,73; 2,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,85; -9,52</t>
+          <t>-16,1; -9,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 17,27</t>
+          <t>-2,37; 17,04</t>
         </is>
       </c>
     </row>
